--- a/周报_吕九峦.xlsx
+++ b/周报_吕九峦.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Idea Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C09638-E858-4271-BD05-CAA7519DBC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F16399E-2CF0-48D8-8E04-5838EB0823F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{870DBAB8-32D6-4460-B83D-5B9726D54737}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>备注</t>
   </si>
@@ -177,6 +177,11 @@
   <si>
     <t>2、实践应用： 尝试将你从论文中学到的方法应用到实际问题中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周
+（1月20日-1月26日）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -558,6 +563,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -575,39 +613,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -924,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063BB108-C89A-47DA-B173-2108D13D17B2}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K16:K18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -943,38 +948,38 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="2"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="4"/>
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="4"/>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -983,44 +988,44 @@
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1039,10 +1044,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1054,8 +1059,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
@@ -1066,32 +1071,32 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="7"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1099,13 +1104,13 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1113,11 +1118,11 @@
       <c r="E19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" ht="87" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1125,11 +1130,11 @@
       <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1142,23 +1147,23 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="7"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="7"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="6" t="s">
         <v>0</v>
       </c>
@@ -1167,8 +1172,163 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" ht="87" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B1:C1"/>
@@ -1176,11 +1336,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="B2:C4"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周报_吕九峦.xlsx
+++ b/周报_吕九峦.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Idea Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F16399E-2CF0-48D8-8E04-5838EB0823F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7F8B3-FFD3-4569-A0F8-852AA9E86E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{870DBAB8-32D6-4460-B83D-5B9726D54737}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{870DBAB8-32D6-4460-B83D-5B9726D54737}"/>
   </bookViews>
   <sheets>
     <sheet name="2024年01月周报" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>备注</t>
   </si>
@@ -182,6 +182,37 @@
     <t>第二周
 （1月20日-1月26日）</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、阅读李航的《统计学习方法》，从数据出发，通过降低相应的损失函数来得到一个在未来数据集合上表现良好的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、学习机器学习三种方式：监督学习、半监督学习、无监督学习，统计学习的三要素：统计方法模型、 策略、算法监督学习问题形式化：主要有两个阶段（学习模型：基于数据、算法、优化）和预测未知数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习模型、策略、算法分别表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、学习模型的评估和模型的选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、调研了PLCC相关性系数，PLCC描述了主观评分和算法评分之间（正态分布）的线性相关性，值越大越好，衡量2个数据之间的变化大小。相关系数的绝对值越大，相关性越强，相关系数越接近于1或-1，相关度越强，相关系数越接近于0，相关度越弱。</t>
+  </si>
+  <si>
+    <t>2、用一个小的实验使用了相关系数算法，学习时间与得分的平均等级之间的关系，现抽查10个学生的资料如student.data文件所示。其中等级10表示最好，1表示最差，试用秩相关检验（Spearman检验和Kendall检验）分析学习时间和学习等级有无关系。（相关性检验）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据集选择好后，将所做的小实验应用到数据集上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、调研其它的强相关列算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,6 +594,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,24 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,7 +972,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -948,38 +988,38 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="2"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="4"/>
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="4"/>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -988,44 +1028,44 @@
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1044,10 +1084,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1059,8 +1099,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
@@ -1071,32 +1111,32 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="7"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1104,13 +1144,13 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1118,11 +1158,11 @@
       <c r="E19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="1:6" ht="87" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1130,11 +1170,11 @@
       <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1147,23 +1187,23 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="7"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="7"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="6" t="s">
         <v>0</v>
       </c>
@@ -1188,127 +1228,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="8"/>
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="32" t="s">
+    <row r="31" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+      <c r="F31" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="87" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="30"/>
-    </row>
-    <row r="33" spans="1:6" ht="87" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="31"/>
-    </row>
-    <row r="34" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="32" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="E34" s="7"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="7"/>
       <c r="D35" s="5"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="7"/>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="6" t="s">
         <v>0</v>
       </c>
@@ -1318,17 +1350,7 @@
       <c r="F37" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
+  <mergeCells count="16">
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B1:C1"/>
@@ -1336,6 +1358,15 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="B2:C4"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周报_吕九峦.xlsx
+++ b/周报_吕九峦.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Idea Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E7F8B3-FFD3-4569-A0F8-852AA9E86E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A95C6C-B66A-4B6C-A4D3-3C71EF8BFF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{870DBAB8-32D6-4460-B83D-5B9726D54737}"/>
+    <workbookView xWindow="36" yWindow="36" windowWidth="30684" windowHeight="16524" xr2:uid="{870DBAB8-32D6-4460-B83D-5B9726D54737}"/>
   </bookViews>
   <sheets>
     <sheet name="2024年01月周报" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>备注</t>
   </si>
@@ -212,6 +212,55 @@
   </si>
   <si>
     <t>2、调研其它的强相关列算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周
+（1月27日-2月3日）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习监督学习问题形式化：主要有两个阶段（学习模型：基于数据、算法、优化）和预测未知数据。基于数据，我们需要考虑的问题是需要学习什么样的模型，首先监督学习，半监督学习或者无监督学习。策略就是我们在机器学习模型中，常提到的损失函数。主要表示的是计算方法，例如梯度下降，Adam算法，牛顿迭代方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、学习模型的评估和模型的选择：在训练模型的时候，会将数据划分为：所有数据=训练数据集合+验证数据集合+测试数据集合。我们根据训练数据集合得到模型，这时候会产生一个训练误差，我们会根据验证数据的误差来调优一个模型的参数，会得到一个验证误差。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习生成模型和判别模型的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、数据如何划分？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、怎么比较三种误差？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、统计学习方法要解决的一般问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、相关性实验选用的数据集"Default of Credit Card Clients Dataset"是一个关于信用卡违约支付的数据集。这个数据集通常被用来进行机器学习和数据分析，特别是在预测信用卡用户是否会违约方面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、在这个数据集上找出。些特征与信用卡违约率的相关性最高。通过数据加载、数据清洗、数据理解，计算相关性：使用pandas的corr函数，可以计算所有特征之间的相关性。结果解释：查看每个特征与目标变量的相关性大小，找出最相关的特征。这些步骤查看相关性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、如何切分数据集模拟多方情况？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在相关性不足、相关性很大、相关性随机的情况分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、分析这几种情况对应如何编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,6 +652,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -611,48 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -969,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063BB108-C89A-47DA-B173-2108D13D17B2}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -988,38 +1040,38 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="2"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="4"/>
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="4"/>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1028,44 +1080,44 @@
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1084,10 +1136,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1099,8 +1151,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="9" t="s">
         <v>19</v>
       </c>
@@ -1111,32 +1163,32 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="7"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="7"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1144,13 +1196,13 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1158,11 +1210,11 @@
       <c r="E19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" ht="87" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1170,11 +1222,11 @@
       <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1187,23 +1239,23 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="7"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="7"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="6" t="s">
         <v>0</v>
       </c>
@@ -1229,10 +1281,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1244,8 +1296,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="9" t="s">
         <v>32</v>
       </c>
@@ -1256,32 +1308,32 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="8"/>
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="7"/>
       <c r="D29" s="5"/>
       <c r="E29" s="7"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="7"/>
       <c r="D30" s="5"/>
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -1294,8 +1346,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="87" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="7" t="s">
         <v>36</v>
       </c>
@@ -1306,16 +1358,16 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="8"/>
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="7"/>
@@ -1324,23 +1376,23 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="7"/>
       <c r="D35" s="5"/>
       <c r="E35" s="7"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="7"/>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>0</v>
       </c>
@@ -1349,8 +1401,164 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="87" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A44" s="37"/>
+      <c r="B44" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="87" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="37"/>
+      <c r="B47" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A39:A50"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B1:C1"/>
@@ -1358,15 +1566,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="B2:C4"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周报_吕九峦.xlsx
+++ b/周报_吕九峦.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Idea Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B88CEB-2C66-4B61-808E-30766F386B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BEEE19-739C-4EB2-9A68-594C2D543A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{EAD1BF43-7D8B-458C-A2D2-C384EFFA27BF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>2024年4月计划</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -127,6 +127,54 @@
   </si>
   <si>
     <t>2、已经对强关联情况下的生成策略有了深入的理解和实践，但对于弱关联情况下的生成策略，还需要进一步的研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、根据已有的强关联数据进行生成策略的设计，包括阅读了相关的论文和技术文档，如《Data Generation as Sequential Decision Making》。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现A方和B方数据的对齐过程，以及如何通过对齐数据建立映射关系。我们通过学习Python的scikit-learn库中的相关函数和方法，成功地实现了这一过程。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、根据已有的强关联数据进行生成策略的设计，包括阅读了相关的论文和技术文档，如《Data Generation as Sequential Decision Making》</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、尚未完成对算法的优化工作。虽然我们已经实现了算法并进行了实验验证，但算法的计算效率和准确性还有改进的空间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、尚未完成对于弱关联情况下生成策略的研究。我们已经对强关联情况下的生成策略有了深入的理解和实践，但对于弱关联情况下的生成策略，还需要进一步的研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联邦的情况下计算A方和B方相关性的方法存在挑战。我们需要找到一种既能保护数据隐私，又能准确计算相关性的方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、基于已有的强关联数据，研究生成策略。考虑在生成过程中是否应优先考虑与A方相关性较强的B方数据，还是可以随机选择数据进行生成。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、在联邦的情况下，研究并实现计算A方和B方相关性的方法。这可能需要查阅相关的文献和方法，理解并实现它们。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、在实践的基础上进行理论研究，探讨在不同的相关性（如一对一强关联、多对多关联、弱关联等）情况下，生成策略的选择对结果的影响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、为了方便后续的论文写作和专利申请，需要详细记录算法的实现过程和思考过程，包括算法的目的、步骤、实现难点等。要尽可能详细和清晰，避免后续回顾时出现理解困难</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于多对多关联情况下的算法实现还没有完成。已经对一对一关联的情况有了深入的理解和实践，但对于多对多关联的情况，我们还需要进一步的研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据一对一这个点，可以开始完善实验，包括基线实验，然后撰写专利</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,6 +477,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -802,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD47F200-C0FA-4990-BF60-6DFD3FECD309}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -820,42 +871,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -874,10 +925,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -886,41 +937,41 @@
       <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="34"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -932,7 +983,7 @@
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
@@ -944,7 +995,7 @@
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
@@ -953,38 +1004,50 @@
       <c r="E13" s="12"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:6" s="14" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="11"/>
+      <c r="E14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="E15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
       <c r="B16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
@@ -994,7 +1057,7 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
@@ -1003,48 +1066,60 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="29" t="s">
+      <c r="E19" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="11"/>
+    <row r="21" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+    <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
       <c r="B22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="18"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
@@ -1054,43 +1129,43 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="7"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="39"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="40"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="21"/>
       <c r="D26" s="7"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="40"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="21"/>
       <c r="D27" s="7"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="41"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="15" t="s">
         <v>9</v>
       </c>
@@ -1100,7 +1175,7 @@
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="17" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1185,7 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>

--- a/周报_吕九峦.xlsx
+++ b/周报_吕九峦.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Idea Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BEEE19-739C-4EB2-9A68-594C2D543A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD7DD62-E3FB-4594-98E6-A4F48CA37CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{EAD1BF43-7D8B-458C-A2D2-C384EFFA27BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{EAD1BF43-7D8B-458C-A2D2-C384EFFA27BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2024年04月周报" sheetId="1" r:id="rId1"/>
+    <sheet name="2024年05月周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>2024年4月计划</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -41,12 +42,6 @@
   </si>
   <si>
     <t>本周未完成工作</t>
-  </si>
-  <si>
-    <t>本周发现的问题</t>
-  </si>
-  <si>
-    <t>下周计划</t>
   </si>
   <si>
     <t>第一周
@@ -83,99 +78,236 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>1、研究并确定多方联邦填补实验设计方案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、据收集工具、数据分析程序，以及用于模拟和控制实验条件的软件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、进行实验并收集数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、例如，阅读《Privacy-Preserving Federated Data Imputation》等论文，了解多方联邦填补的最新研究进展。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、进行的文献调研，研究并比较几种可能的实验设计方法，如因素分析、随机化控制试验等，以确定最适合多方联邦填补的实验设计方法。这部分工作将涉及到大量的阅读和对比分析，需要对不同实验设计方法的优缺点有深入的理解。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、为了方便后续的论文写作和专利申请，需要详细记录算法的实现过程和思考过程，包括算法的目的、步骤、实现难点等。要尽可能详细和清晰，避免后续回顾时出现理解困难。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、根据算法设计的实验方案，进行实验验证。实验中要注意记录实验过程和结果，特别是对于不同情况（如强关联、弱关联等）的实验结果。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究并实现相关性计算方法、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、学习了如何在联邦的情况下计算A方和B方相关性的方法，包括阅读了相关的论文和技术文档，如《Federated Learning: Strategies for Improving Communication Efficiency》。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、虽然已经实现了算法并进行了实验验证，但算法的计算效率和准确性还有改进的空间。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、已经对强关联情况下的生成策略有了深入的理解和实践，但对于弱关联情况下的生成策略，还需要进一步的研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、根据已有的强关联数据进行生成策略的设计，包括阅读了相关的论文和技术文档，如《Data Generation as Sequential Decision Making》。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实现A方和B方数据的对齐过程，以及如何通过对齐数据建立映射关系。我们通过学习Python的scikit-learn库中的相关函数和方法，成功地实现了这一过程。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、根据已有的强关联数据进行生成策略的设计，包括阅读了相关的论文和技术文档，如《Data Generation as Sequential Decision Making》</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、尚未完成对算法的优化工作。虽然我们已经实现了算法并进行了实验验证，但算法的计算效率和准确性还有改进的空间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、尚未完成对于弱关联情况下生成策略的研究。我们已经对强关联情况下的生成策略有了深入的理解和实践，但对于弱关联情况下的生成策略，还需要进一步的研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联邦的情况下计算A方和B方相关性的方法存在挑战。我们需要找到一种既能保护数据隐私，又能准确计算相关性的方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、基于已有的强关联数据，研究生成策略。考虑在生成过程中是否应优先考虑与A方相关性较强的B方数据，还是可以随机选择数据进行生成。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、在联邦的情况下，研究并实现计算A方和B方相关性的方法。这可能需要查阅相关的文献和方法，理解并实现它们。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、在实践的基础上进行理论研究，探讨在不同的相关性（如一对一强关联、多对多关联、弱关联等）情况下，生成策略的选择对结果的影响</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、为了方便后续的论文写作和专利申请，需要详细记录算法的实现过程和思考过程，包括算法的目的、步骤、实现难点等。要尽可能详细和清晰，避免后续回顾时出现理解困难</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于多对多关联情况下的算法实现还没有完成。已经对一对一关联的情况有了深入的理解和实践，但对于多对多关联的情况，我们还需要进一步的研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据一对一这个点，可以开始完善实验，包括基线实验，然后撰写专利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>本周研究工作</t>
-  </si>
-  <si>
-    <t>1、研究并确定多方联邦填补实验设计方案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、据收集工具、数据分析程序，以及用于模拟和控制实验条件的软件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、进行实验并收集数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、例如，阅读《Privacy-Preserving Federated Data Imputation》等论文，了解多方联邦填补的最新研究进展。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、进行的文献调研，研究并比较几种可能的实验设计方法，如因素分析、随机化控制试验等，以确定最适合多方联邦填补的实验设计方法。这部分工作将涉及到大量的阅读和对比分析，需要对不同实验设计方法的优缺点有深入的理解。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、为了方便后续的论文写作和专利申请，需要详细记录算法的实现过程和思考过程，包括算法的目的、步骤、实现难点等。要尽可能详细和清晰，避免后续回顾时出现理解困难。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、根据算法设计的实验方案，进行实验验证。实验中要注意记录实验过程和结果，特别是对于不同情况（如强关联、弱关联等）的实验结果。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究并实现相关性计算方法、</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、学习了如何在联邦的情况下计算A方和B方相关性的方法，包括阅读了相关的论文和技术文档，如《Federated Learning: Strategies for Improving Communication Efficiency》。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、虽然已经实现了算法并进行了实验验证，但算法的计算效率和准确性还有改进的空间。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、已经对强关联情况下的生成策略有了深入的理解和实践，但对于弱关联情况下的生成策略，还需要进一步的研究</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、根据已有的强关联数据进行生成策略的设计，包括阅读了相关的论文和技术文档，如《Data Generation as Sequential Decision Making》。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、实现A方和B方数据的对齐过程，以及如何通过对齐数据建立映射关系。我们通过学习Python的scikit-learn库中的相关函数和方法，成功地实现了这一过程。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、根据已有的强关联数据进行生成策略的设计，包括阅读了相关的论文和技术文档，如《Data Generation as Sequential Decision Making》</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、尚未完成对算法的优化工作。虽然我们已经实现了算法并进行了实验验证，但算法的计算效率和准确性还有改进的空间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、尚未完成对于弱关联情况下生成策略的研究。我们已经对强关联情况下的生成策略有了深入的理解和实践，但对于弱关联情况下的生成策略，还需要进一步的研究</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>联邦的情况下计算A方和B方相关性的方法存在挑战。我们需要找到一种既能保护数据隐私，又能准确计算相关性的方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、基于已有的强关联数据，研究生成策略。考虑在生成过程中是否应优先考虑与A方相关性较强的B方数据，还是可以随机选择数据进行生成。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、在联邦的情况下，研究并实现计算A方和B方相关性的方法。这可能需要查阅相关的文献和方法，理解并实现它们。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、在实践的基础上进行理论研究，探讨在不同的相关性（如一对一强关联、多对多关联、弱关联等）情况下，生成策略的选择对结果的影响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、为了方便后续的论文写作和专利申请，需要详细记录算法的实现过程和思考过程，包括算法的目的、步骤、实现难点等。要尽可能详细和清晰，避免后续回顾时出现理解困难</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于多对多关联情况下的算法实现还没有完成。已经对一对一关联的情况有了深入的理解和实践，但对于多对多关联的情况，我们还需要进一步的研究</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据一对一这个点，可以开始完善实验，包括基线实验，然后撰写专利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周其他工作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周发现的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、相关性分析研究：对A方和B方数据集的相关性进行了深入研究，特别是A方各列与B方某一列或某几列的相关性系数的计算。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、数据集生成与补充：基于A方的特定列，尝试生成新的列以补充B方数据集，关注于多对一的数据关系处理。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、联邦学习方法探索：讨论了使用联邦学习技术对数据进行分析和生成的可行性，尤其是在保护数据隐私的情况下进行跨数据源的分析。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、重点复习了监督学习与无监督学习算法，特别是在数据预测和分类上的应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、习并应用统计学中的相关性计算方法，以更准确地理解和解释数据间的关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在对数据集进行处理时发现部分数据质量不高，影响了分析结果的准确性。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、有的关联规则算法在特定情境下效果不佳，需寻找或开发更加适合的算法。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、改进数据处理流程：优化数据清洗和预处理步骤，提高数据质量，以便进行更准确的统计分析。
+2、测试不同的机器学习算法对于当前数据的适用性，选择最优算法进行深入研究。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年5月计划</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、根据前期的实验和分析过程撰写专利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、继续补充剩余idea的验证实验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、为后续撰写论文准备充分的研究</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一周
+（2024年05月01号到05月07号）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周
+（2024年05月08号到05月14号）</t>
+  </si>
+  <si>
+    <t>第三周
+（2024年05月15日-05月21日）</t>
+  </si>
+  <si>
+    <t>第四周
+（2024年05月22日-05月28日）</t>
+  </si>
+  <si>
+    <t>1、研究使用关联规则在对齐和未对齐的数据集上生成数据的方法。特别关注于如何从A方数据通过关联规则筛选和生成适合B方对齐位置的数据。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、进行了一列与多列数据生成策略的探讨，尝试理解和改进从A方数据生成B方数据的过程，并探索了对齐数据生成的可能性。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、使用基本的规则算法来处理数据生成任务，并计划测试不同的关联规则以观察结果变化。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习了不同类型的关联规则，包括概率分配方法，以及如何应用这些规则于实际数据生成中。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、研究了数据对齐的技术和方法，特别是在处理不同数据源时如何有效地对齐和利用数据。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、观察到当前使用的关联规则在某些数据集上效果不佳，需要探索更多的算法选项。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、在实际操作中发现对齐数据集的难度较大，特别是在不同数据特征之间的对应问题。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、计划测试不同的观点规则，比较其在实际数据生成中的效果和适用性。
+2、探索和实施更有效的数据对齐技术，以提高数据处理的准确性和效率。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、进行了A和B方数据在不同分区条件下的实验，以分析分区方式对实验结果准确性的潜在影响。研究了不同数据集如何影响关联规则的有效性和结果的偏差。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、研究如何有效地撰写技术专利，学习专利写作的要求和标准，计划如何结合研究成果撰写专利申请。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、在使用数据生成技术填补数据时发现数据对齐存在问题，这可能会影响生成数据的质量和实用性。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、观察到不同数据集和分区策略下实验结果的变异性，需要进一步分析数据处理和实验设计。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、探索了使用联邦学习方法和CTGAN网络进行数据填补的可能性。查阅相关论文并规划实现自定义的联邦学习实验，特别是纵向联邦学习的应用。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、计划实施具体的联邦学习实验，特别是关于如何使用CTGAN技术进行数据生成。
+2、继续探索不同的关联规则在数据生成中的应用，尤其是在联邦学习框架下的应用。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -405,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +613,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -495,45 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -853,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD47F200-C0FA-4990-BF60-6DFD3FECD309}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -871,42 +1021,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="26"/>
+      <c r="B2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="45"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="26"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="26"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -918,86 +1068,86 @@
         <v>4</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="34" t="s">
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="35"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="18"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="12"/>
@@ -1005,51 +1155,51 @@
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>8</v>
+      <c r="A14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>6</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="124.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="36"/>
+        <v>28</v>
+      </c>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="7"/>
@@ -1057,9 +1207,9 @@
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="12"/>
@@ -1067,61 +1217,61 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>13</v>
+      <c r="A19" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="30" t="s">
-        <v>9</v>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="18"/>
       <c r="F22" s="21"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="7"/>
@@ -1129,55 +1279,432 @@
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>15</v>
+      <c r="A24" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="37"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F24:F27"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B0143D-1C98-469E-BCB0-773213A9A4C2}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="78.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="42"/>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" s="14" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="14" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="7"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="40"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="41"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="21"/>
       <c r="D26" s="7"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="41"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="21"/>
       <c r="D27" s="7"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="42"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="15" t="s">
-        <v>9</v>
+      <c r="A28" s="32"/>
+      <c r="B28" s="27" t="s">
+        <v>7</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="17" t="s">
-        <v>10</v>
+      <c r="A29" s="32"/>
+      <c r="B29" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="7"/>
@@ -1185,9 +1712,9 @@
       <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="7"/>
@@ -1207,14 +1734,14 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
